--- a/Text_Functions/Text_Functions_InClass.xlsx
+++ b/Text_Functions/Text_Functions_InClass.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Text_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6F353FF-64EB-4188-8B50-ECC45B9B9254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90CA309-56A1-436D-A81D-550A33F4AE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28635" yWindow="-165" windowWidth="15690" windowHeight="11250" xr2:uid="{D2AD422D-7F67-4798-B179-CA5565095D80}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{D2AD422D-7F67-4798-B179-CA5565095D80}"/>
   </bookViews>
   <sheets>
-    <sheet name="Length" sheetId="1" r:id="rId1"/>
+    <sheet name="Text_Functions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +25,62 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>Hello World!</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Trim</t>
+  </si>
+  <si>
+    <t>Upper</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>Proper</t>
+  </si>
+  <si>
+    <t>Substitute</t>
+  </si>
+  <si>
+    <t>Replace</t>
+  </si>
+  <si>
+    <t>Find</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>MID</t>
+  </si>
+  <si>
+    <t>Concatenate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello </t>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to </t>
+  </si>
+  <si>
+    <t>MexEE 402</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -47,7 +102,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -55,12 +110,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,14 +446,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971CEC53-11F1-4342-AF5F-09C044C6BAD5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.90625" customWidth="1"/>
+    <col min="2" max="12" width="17.7265625" customWidth="1"/>
+    <col min="13" max="13" width="25.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <f>LEN(A2)</f>
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>TRIM(A2)</f>
+        <v>Hello World!</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>UPPER(A2)</f>
+        <v>HELLO WORLD!</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f>LOWER(A2)</f>
+        <v>hello world!</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f>PROPER(D2)</f>
+        <v>Hello World!</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f>SUBSTITUTE(A2,"World","Love")</f>
+        <v>Hello Love!</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f>REPLACE(A2,7,9,"Sir Mikko!")</f>
+        <v>Hello Sir Mikko!</v>
+      </c>
+      <c r="I2" s="1">
+        <f>FIND("World",A2,1)</f>
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="str">
+        <f>LEFT(A2,7)</f>
+        <v>Hello W</v>
+      </c>
+      <c r="K2" s="1" t="str">
+        <f>RIGHT(A2,6)</f>
+        <v>World!</v>
+      </c>
+      <c r="L2" s="1" t="str">
+        <f>MID(A2,2,8)</f>
+        <v>ello Wor</v>
+      </c>
+      <c r="M2" s="1" t="str">
+        <f>CONCATENATE(A3,"",A4," ",A5,"",A6,A7)</f>
+        <v>Hello welcome to MexEE 402!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" t="str">
+        <f>CONCATENATE(A3,"",A4,A7)</f>
+        <v>Hello welcome!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" t="str">
+        <f>CONCATENATE(A3,"",RIGHT(A2,6))</f>
+        <v>Hello World!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>